--- a/birthday.xlsx
+++ b/birthday.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">ACB - CN CHAU VAN LIEM</t>
   </si>
   <si>
-    <t xml:space="preserve">KIM JONG UN</t>
+    <t xml:space="preserve">PHAM THI B</t>
   </si>
   <si>
     <t xml:space="preserve">Vang</t>
@@ -306,13 +306,16 @@
     <t xml:space="preserve">NGUYEN VAN A</t>
   </si>
   <si>
+    <t xml:space="preserve">HOANG NGUYEN C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN THI B</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARACK OBAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KHUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN THI B</t>
   </si>
   <si>
     <t xml:space="preserve">DONALD TRUMP</t>
@@ -355,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -406,11 +409,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -468,7 +466,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,10 +491,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -514,23 +508,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -611,7 +602,7 @@
       <c r="E3" s="5" t="n">
         <v>1298371923</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>1298371523</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -646,9 +637,7 @@
       <c r="E4" s="0" t="n">
         <v>2342342342</v>
       </c>
-      <c r="F4" s="6" t="n">
-        <v>1298344523</v>
-      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="0" t="n">
         <v>2</v>
       </c>
@@ -658,241 +647,11 @@
       <c r="I4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>411505</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1231332234</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>6698344523</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>411506</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2342333123</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>411507</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2343364353</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1778344523</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>411508</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>3234234234</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>411509</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>411510</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>3234234234</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>411511</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>2323423423</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1298114523</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +690,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,12 +704,12 @@
         <v>411504</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>2342342342</v>
       </c>
-      <c r="F1" s="6" t="n">
+      <c r="F1" s="5" t="n">
         <v>1298344523</v>
       </c>
       <c r="G1" s="0" t="n">
@@ -980,7 +739,7 @@
         <v>411505</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1231332234</v>
@@ -995,13 +754,13 @@
         <v>12</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +774,7 @@
         <v>411506</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2342333123</v>
@@ -1047,7 +806,7 @@
         <v>411507</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2343364353</v>
@@ -1067,7 +826,7 @@
       <c r="K4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1082,7 +841,7 @@
         <v>411508</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3234234234</v>
@@ -1114,7 +873,7 @@
         <v>411509</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>24</v>
@@ -1123,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>19</v>
@@ -1143,7 +902,7 @@
         <v>411510</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>3234234234</v>
@@ -1161,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,7 +934,7 @@
         <v>411511</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>2323423423</v>
@@ -1190,13 +949,13 @@
         <v>6</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/birthday.xlsx
+++ b/birthday.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -313,42 +312,6 @@
   </si>
   <si>
     <t xml:space="preserve">NGUYEN THI B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARACK OBAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONALD TRUMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kim cuong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOANG THUY C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VLADIMIR PUTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEGAN FOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE CONG VINH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN XUAN PHUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM COOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELON MUSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bach Kim</t>
   </si>
 </sst>
 </file>
@@ -510,8 +473,8 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -675,296 +638,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="n">
-        <v>411504</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>2342342342</v>
-      </c>
-      <c r="F1" s="5" t="n">
-        <v>1298344523</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>411505</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1231332234</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>6698344523</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>411506</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2342333123</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>411507</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>2343364353</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1778344523</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>411508</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3234234234</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>411509</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>411510</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>3234234234</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>411511</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>2323423423</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1298114523</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>